--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value149.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value149.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.240991704880094</v>
+        <v>0.6366130709648132</v>
       </c>
       <c r="B1">
-        <v>2.429189454918375</v>
+        <v>4.171104431152344</v>
       </c>
       <c r="C1">
-        <v>2.708132105230149</v>
+        <v>4.070846557617188</v>
       </c>
       <c r="D1">
-        <v>1.846939785308984</v>
+        <v>1.506852626800537</v>
       </c>
       <c r="E1">
-        <v>0.818597558251433</v>
+        <v>1.079263091087341</v>
       </c>
     </row>
   </sheetData>
